--- a/assets/images/Concept Image.xlsx
+++ b/assets/images/Concept Image.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B7E29-2572-4E56-9DF5-0C28C0EDC4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF4DDE-8F02-460D-9E42-2E7DFBEA2D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17910" yWindow="11670" windowWidth="30570" windowHeight="15225" xr2:uid="{05B82CF3-A28D-4A5C-B20F-68CD10334C70}"/>
+    <workbookView xWindow="47610" yWindow="15270" windowWidth="22830" windowHeight="13410" xr2:uid="{05B82CF3-A28D-4A5C-B20F-68CD10334C70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,7 +50,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -86,6 +82,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -101,16 +102,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -132,7 +133,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="371475"/>
+          <a:off x="3752850" y="361950"/>
           <a:ext cx="3467100" cy="16525875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -144,15 +145,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -203,16 +204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104043</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409573</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>132623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>151668</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>27848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -227,12 +228,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1457325" y="5538422"/>
-          <a:ext cx="1278548" cy="1795827"/>
+          <a:off x="1071561" y="5719035"/>
+          <a:ext cx="1266825" cy="1371602"/>
         </a:xfrm>
         <a:prstGeom prst="stripedRightArrow">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 100000"/>
             <a:gd name="adj2" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
@@ -270,16 +271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -294,15 +295,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1657350" y="6000750"/>
+          <a:off x="1019175" y="6057900"/>
           <a:ext cx="2600325" cy="3981450"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 34398"/>
+            <a:gd name="adj1" fmla="val 52713"/>
             <a:gd name="adj2" fmla="val 50000"/>
-            <a:gd name="adj3" fmla="val 25000"/>
-            <a:gd name="adj4" fmla="val 43750"/>
+            <a:gd name="adj3" fmla="val 25733"/>
+            <a:gd name="adj4" fmla="val 54739"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -337,6 +338,141 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0310560F-6CE8-4BED-980B-66A567B1168F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="7019925"/>
+          <a:ext cx="1400176" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1" cap="none" spc="50">
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="38100">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Scan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1" cap="none" spc="50">
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="38100">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>symbol</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="50">
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="38100">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -643,13 +779,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7677240B-8546-4883-8343-8B6F38093A1D}">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K109" sqref="A1:K109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -665,9 +803,8 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -683,9 +820,8 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -701,9 +837,8 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -719,9 +854,8 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -737,9 +871,8 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -755,9 +888,8 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -773,9 +905,8 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -791,9 +922,8 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -809,9 +939,8 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -827,9 +956,8 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -845,9 +973,8 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -863,9 +990,8 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -881,9 +1007,8 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -899,9 +1024,8 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -917,9 +1041,8 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -935,9 +1058,8 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -953,9 +1075,8 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -971,9 +1092,8 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -989,9 +1109,8 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1007,9 +1126,8 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1025,9 +1143,8 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1043,9 +1160,8 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1061,9 +1177,8 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1079,9 +1194,8 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1097,9 +1211,8 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1115,9 +1228,8 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1133,9 +1245,8 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1151,9 +1262,8 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1169,9 +1279,8 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1187,9 +1296,8 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1205,9 +1313,8 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1223,9 +1330,8 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1241,9 +1347,8 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1259,9 +1364,8 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1277,9 +1381,8 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1295,9 +1398,8 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1313,9 +1415,8 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1331,9 +1432,8 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1349,9 +1449,8 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1367,9 +1466,8 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1385,9 +1483,8 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1403,9 +1500,8 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1421,9 +1517,8 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1439,9 +1534,8 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1457,9 +1551,8 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1475,9 +1568,8 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1493,9 +1585,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1511,9 +1602,8 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1529,9 +1619,8 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1547,9 +1636,8 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1565,9 +1653,8 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1583,9 +1670,8 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1601,9 +1687,8 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1619,9 +1704,8 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1637,9 +1721,8 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1655,9 +1738,8 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1673,9 +1755,8 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1691,9 +1772,8 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1709,9 +1789,8 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1727,9 +1806,8 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1745,9 +1823,8 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1763,9 +1840,8 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1781,9 +1857,8 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1799,9 +1874,8 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1817,9 +1891,8 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1835,9 +1908,8 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1853,9 +1925,8 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1871,9 +1942,8 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1889,9 +1959,8 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1907,9 +1976,8 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1925,9 +1993,8 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1943,9 +2010,8 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1961,9 +2027,8 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1979,9 +2044,8 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1997,9 +2061,8 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2015,9 +2078,8 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2033,9 +2095,8 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2051,9 +2112,8 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2069,9 +2129,8 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2087,9 +2146,8 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2105,9 +2163,8 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2123,9 +2180,8 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2141,9 +2197,8 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2159,9 +2214,8 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2177,9 +2231,8 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2195,9 +2248,8 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2213,9 +2265,8 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2231,9 +2282,8 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2249,9 +2299,8 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2267,9 +2316,8 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2285,9 +2333,8 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2303,9 +2350,8 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2321,9 +2367,8 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2339,9 +2384,8 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2357,9 +2401,8 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2375,9 +2418,8 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2393,9 +2435,8 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2411,9 +2452,8 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2429,9 +2469,8 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2447,9 +2486,8 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2465,9 +2503,8 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2483,9 +2520,8 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2501,9 +2537,8 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2519,9 +2554,8 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2537,9 +2571,8 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2555,9 +2588,8 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2573,9 +2605,8 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2591,9 +2622,8 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2609,9 +2639,8 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2627,9 +2656,8 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2645,9 +2673,8 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2663,9 +2690,8 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2681,9 +2707,8 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2699,9 +2724,8 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2717,9 +2741,8 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2735,9 +2758,8 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2753,9 +2775,8 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2771,9 +2792,8 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2789,9 +2809,8 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2807,9 +2826,8 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2825,9 +2843,8 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2843,9 +2860,8 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2861,43 +2877,6 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
